--- a/Boletin_ Epi_Pereira/Datos/2025_831_Reporte.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/2025_831_Reporte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
   <si>
     <t>cod_eve</t>
   </si>
@@ -458,6 +458,171 @@
     <t>Captura 2.0.5</t>
   </si>
   <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>6600101587</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>1088339529</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>VILLA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>MANZANA 10 CASA 22 BARRIO VILLA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>99999.04</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>EPSS02</t>
+  </si>
+  <si>
+    <t>11/01/2025</t>
+  </si>
+  <si>
+    <t>3044271697</t>
+  </si>
+  <si>
+    <t>19/11/1996</t>
+  </si>
+  <si>
+    <t>660010158706</t>
+  </si>
+  <si>
+    <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+  </si>
+  <si>
+    <t>YENSY YAMILE RENDON</t>
+  </si>
+  <si>
+    <t>3115411</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>900342064</t>
+  </si>
+  <si>
+    <t>29/01/2025</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6600100361</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENDON </t>
+  </si>
+  <si>
+    <t>1085717011</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>CAMPESTRE D</t>
+  </si>
+  <si>
+    <t>MANZANA 14 CASA 22 CAMPESTRE D</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>3137759876</t>
+  </si>
+  <si>
+    <t>30/09/2005</t>
+  </si>
+  <si>
+    <t>660010036101</t>
+  </si>
+  <si>
+    <t>CLINICA LOS ROSALES</t>
+  </si>
+  <si>
+    <t>MATEO GIRALDO</t>
+  </si>
+  <si>
+    <t>3144207790</t>
+  </si>
+  <si>
+    <t>8914099810</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>RENDON</t>
+  </si>
+  <si>
+    <t>1004520649</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>MANZANA 14 CASA 7 CAMPESTRE D</t>
+  </si>
+  <si>
+    <t>99999.07</t>
+  </si>
+  <si>
+    <t>EPS002</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3207810446</t>
+  </si>
+  <si>
+    <t>23/05/2003</t>
+  </si>
+  <si>
+    <t>DARIO FERNANDO YEPES</t>
+  </si>
+  <si>
+    <t>3104511165</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
     <t>02/01/2025</t>
   </si>
   <si>
@@ -491,12 +656,6 @@
     <t xml:space="preserve">CRA 10 # 5-20 BARRIO LOS NARANJOS  1 DE AGOSTO CASA 5 </t>
   </si>
   <si>
-    <t>99999.04</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>EPSS37</t>
   </si>
   <si>
@@ -524,132 +683,567 @@
     <t>Captura 2.0.3</t>
   </si>
   <si>
-    <t>13/01/2025</t>
-  </si>
-  <si>
-    <t>6600101587</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>1088339529</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>VILLA ALEXANDRA</t>
-  </si>
-  <si>
-    <t>MANZANA 10 CASA 22 BARRIO VILLA ALEXANDRA</t>
-  </si>
-  <si>
-    <t>EPSS02</t>
-  </si>
-  <si>
-    <t>11/01/2025</t>
-  </si>
-  <si>
-    <t>3044271697</t>
-  </si>
-  <si>
-    <t>19/11/1996</t>
-  </si>
-  <si>
-    <t>660010158706</t>
-  </si>
-  <si>
-    <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
-  </si>
-  <si>
-    <t>YENSY YAMILE RENDON</t>
-  </si>
-  <si>
-    <t>3115411</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>900342064</t>
-  </si>
-  <si>
-    <t>6600100361</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>RENDON</t>
-  </si>
-  <si>
-    <t>1004520649</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>CAMPESTRE D</t>
-  </si>
-  <si>
-    <t>MANZANA 14 CASA 7 CAMPESTRE D</t>
-  </si>
-  <si>
-    <t>99999.07</t>
-  </si>
-  <si>
-    <t>EPS002</t>
-  </si>
-  <si>
-    <t>10/01/2025</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3207810446</t>
-  </si>
-  <si>
-    <t>23/05/2003</t>
-  </si>
-  <si>
-    <t>660010036101</t>
-  </si>
-  <si>
-    <t>CLINICA LOS ROSALES</t>
-  </si>
-  <si>
-    <t>DARIO FERNANDO YEPES</t>
-  </si>
-  <si>
-    <t>3104511165</t>
-  </si>
-  <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>8914099810</t>
+    <t>24/01/2025</t>
   </si>
   <si>
     <t>6600100332</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>JHON</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>LENGUA</t>
+  </si>
+  <si>
+    <t>ANDICA</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>1089392143</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 13B NUMERO 40 29 </t>
+  </si>
+  <si>
+    <t>99999.06</t>
+  </si>
+  <si>
+    <t>ESS062</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>3126803657</t>
+  </si>
+  <si>
+    <t>03/07/2020</t>
+  </si>
+  <si>
+    <t>660010033225</t>
+  </si>
+  <si>
+    <t>HOSPITAL DEL CENTRO</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE CAMEJO</t>
+  </si>
+  <si>
+    <t>3515252</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>816005003</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6600103078</t>
+  </si>
+  <si>
+    <t>LAUREN</t>
+  </si>
+  <si>
+    <t>LUHIANA</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>RINCON</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>1054561619</t>
+  </si>
+  <si>
+    <t>ESTADIO</t>
+  </si>
+  <si>
+    <t>LA VILLA</t>
+  </si>
+  <si>
+    <t>COLORES DE LA VILLA BLOQUE AZUL CASA 8</t>
+  </si>
+  <si>
+    <t>12/01/2025</t>
+  </si>
+  <si>
+    <t>3203920567</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>660010307801</t>
+  </si>
+  <si>
+    <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+  </si>
+  <si>
+    <t>PAOLA OSPINA CASTRO</t>
+  </si>
+  <si>
+    <t>3174040501</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>901417124</t>
+  </si>
+  <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>TOMAS</t>
+  </si>
+  <si>
+    <t>REINOSA</t>
+  </si>
+  <si>
+    <t>HENAO</t>
+  </si>
+  <si>
+    <t>1054864207</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>CERRITOS</t>
+  </si>
+  <si>
+    <t>UND CERRITOS CAMPESTRE - CASA #914</t>
+  </si>
+  <si>
+    <t>4.810568</t>
+  </si>
+  <si>
+    <t>-75.799886</t>
+  </si>
+  <si>
+    <t>3178038404</t>
+  </si>
+  <si>
+    <t>16/01/2009</t>
+  </si>
+  <si>
+    <t>JOHN ANGEL CASTRO</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.8.0</t>
+  </si>
+  <si>
+    <t>SHARID</t>
+  </si>
+  <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>1089939087</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9999999 SIN INFORMACION</t>
+  </si>
+  <si>
+    <t>BARRIO EL JAPON</t>
+  </si>
+  <si>
+    <t>4.817094</t>
+  </si>
+  <si>
+    <t>-75.679718</t>
+  </si>
+  <si>
+    <t>18/01/2025</t>
+  </si>
+  <si>
+    <t>3009075564</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>ANA MARIA</t>
+  </si>
+  <si>
+    <t>3016108033</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>DAYANA</t>
+  </si>
+  <si>
+    <t>LLANOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1007831831</t>
+  </si>
+  <si>
+    <t>VEREDA LA SIRIA</t>
+  </si>
+  <si>
+    <t>VEREDA LA SIRIA TRAPICHE EL PARAISO</t>
+  </si>
+  <si>
+    <t>4.795779</t>
+  </si>
+  <si>
+    <t>-75.716488</t>
+  </si>
+  <si>
+    <t>EPS037</t>
+  </si>
+  <si>
+    <t>3235064515</t>
+  </si>
+  <si>
+    <t>25/09/1999</t>
+  </si>
+  <si>
+    <t>JENNY CANO</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>MIREYA</t>
+  </si>
+  <si>
+    <t>NAVARRETE</t>
+  </si>
+  <si>
+    <t>1055458281</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MANZANA 15 CASA #10 SEGUNDO PISO BELLO HORIZONTE</t>
+  </si>
+  <si>
+    <t>4.797177</t>
+  </si>
+  <si>
+    <t>-75.748626</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>3202156368</t>
+  </si>
+  <si>
+    <t>01/08/2007</t>
+  </si>
+  <si>
+    <t>LYDA</t>
+  </si>
+  <si>
+    <t>MAGALY</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>FORERO</t>
+  </si>
+  <si>
+    <t>24652219</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CALLE 63 #5-28 APTO 201 NUEVO HORIZONTE PARQUE IND</t>
+  </si>
+  <si>
+    <t>4.821185</t>
+  </si>
+  <si>
+    <t>-75.732129</t>
+  </si>
+  <si>
+    <t>52300</t>
+  </si>
+  <si>
+    <t>3018170081</t>
+  </si>
+  <si>
+    <t>28/06/1984</t>
+  </si>
+  <si>
+    <t>26/01/2025</t>
+  </si>
+  <si>
+    <t>MUNERA</t>
+  </si>
+  <si>
+    <t>1087555952</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 12#8-53 COROSITO </t>
+  </si>
+  <si>
+    <t>25/01/2025</t>
+  </si>
+  <si>
+    <t>3004269854</t>
+  </si>
+  <si>
+    <t>02/05/2011</t>
+  </si>
+  <si>
+    <t>LINA GUTIERRES</t>
+  </si>
+  <si>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>ERICK</t>
+  </si>
+  <si>
+    <t>QUICENO</t>
+  </si>
+  <si>
+    <t>HINCAPIE</t>
+  </si>
+  <si>
+    <t>1005101410</t>
+  </si>
+  <si>
+    <t>NUEVO PEÑOL</t>
+  </si>
+  <si>
+    <t>AV EL RIO CALLE 29 C MANZANA 4 CASA 64 BARRIO NUEVO PEÑOL</t>
+  </si>
+  <si>
+    <t>43212</t>
+  </si>
+  <si>
+    <t>3164479684</t>
+  </si>
+  <si>
+    <t>27/09/2003</t>
+  </si>
+  <si>
+    <t>DYLAN</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>1088883722</t>
+  </si>
+  <si>
+    <t>CRA 28#19B-41 CAMPESTRE B</t>
+  </si>
+  <si>
+    <t>3008050208</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>3104511265</t>
+  </si>
+  <si>
+    <t>CRISTHOPER</t>
+  </si>
+  <si>
+    <t>MOSQUERA</t>
+  </si>
+  <si>
+    <t>1088885010</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>VILLASANTANA</t>
+  </si>
+  <si>
+    <t>REMANSO</t>
+  </si>
+  <si>
+    <t>BARRIO EL REMANSO M4 C6</t>
+  </si>
+  <si>
+    <t>3117872564</t>
+  </si>
+  <si>
+    <t>14/09/2016</t>
+  </si>
+  <si>
+    <t>660010033232</t>
+  </si>
+  <si>
+    <t>EMPRESA SOCIAL DEL ESTADO SALUD PEREIRA</t>
+  </si>
+  <si>
+    <t>ALVARO A OSORIO R</t>
+  </si>
+  <si>
+    <t>3113839416</t>
+  </si>
+  <si>
+    <t>8160050035</t>
+  </si>
+  <si>
+    <t>UNIDAD INTERMEDIA DE KENNEDY</t>
+  </si>
+  <si>
+    <t>30/01/2025</t>
+  </si>
+  <si>
+    <t>YUDI</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULGARIN </t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>1124218930</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>LA BELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERA VISTA HERMOSA </t>
+  </si>
+  <si>
+    <t>3138628614</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LENIS</t>
+  </si>
+  <si>
+    <t>1142527449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA </t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONJUNTO RESIDENCIAL CAOBA APARTAMENTO  1102 VIA CONDINA  CUBA </t>
+  </si>
+  <si>
+    <t>3172555564</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARITZA CORDERO LOPEZ </t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>GRANADOS</t>
+  </si>
+  <si>
+    <t>RODIRGUEZ</t>
+  </si>
+  <si>
+    <t>1116438901</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SAN NICOLAS</t>
+  </si>
+  <si>
+    <t>CALLE 34 # 152-23</t>
+  </si>
+  <si>
+    <t>43122</t>
+  </si>
+  <si>
+    <t>EPS042</t>
+  </si>
+  <si>
+    <t>3235817702</t>
+  </si>
+  <si>
+    <t>26/10/1990</t>
+  </si>
+  <si>
+    <t>DORELIS GUTIERREZ</t>
+  </si>
+  <si>
+    <t>3246497935</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -665,30 +1259,15 @@
     <t>CASTAÑO</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>1089625660</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>CUBA</t>
-  </si>
-  <si>
     <t xml:space="preserve">EL NOGAL </t>
   </si>
   <si>
     <t xml:space="preserve">GRANJA INFANTIL JESUS DE LA BUENA ESPERANZA AV SUR ENTRADA EL NOGAL </t>
   </si>
   <si>
-    <t>ESS062</t>
-  </si>
-  <si>
     <t>3134228618</t>
   </si>
   <si>
@@ -704,226 +1283,61 @@
     <t>MARIA CAMILA BOTERO</t>
   </si>
   <si>
-    <t>3515252</t>
-  </si>
-  <si>
-    <t>8160050035</t>
-  </si>
-  <si>
-    <t>16/01/2025</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TOMAS</t>
-  </si>
-  <si>
-    <t>REINOSA</t>
-  </si>
-  <si>
-    <t>HENAO</t>
-  </si>
-  <si>
-    <t>1054864207</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>CERRITOS</t>
-  </si>
-  <si>
-    <t>UND CERRITOS CAMPESTRE - CASA #914</t>
-  </si>
-  <si>
-    <t>4.810568</t>
-  </si>
-  <si>
-    <t>-75.799886</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3178038404</t>
-  </si>
-  <si>
-    <t>16/01/2009</t>
-  </si>
-  <si>
-    <t>22/01/2025</t>
-  </si>
-  <si>
-    <t>JOHN ANGEL CASTRO</t>
-  </si>
-  <si>
-    <t>SIVIGILA - 2018 -18.8.0</t>
-  </si>
-  <si>
-    <t>20/01/2025</t>
-  </si>
-  <si>
-    <t>SHARID</t>
-  </si>
-  <si>
-    <t>GIRALDO</t>
-  </si>
-  <si>
-    <t>CARMONA</t>
-  </si>
-  <si>
-    <t>1089939087</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9999999 SIN INFORMACION</t>
-  </si>
-  <si>
-    <t>BARRIO EL JAPON</t>
-  </si>
-  <si>
-    <t>4.817094</t>
-  </si>
-  <si>
-    <t>-75.679718</t>
-  </si>
-  <si>
-    <t>18/01/2025</t>
-  </si>
-  <si>
-    <t>3009075564</t>
-  </si>
-  <si>
-    <t>04/06/2013</t>
-  </si>
-  <si>
-    <t>27/01/2025</t>
-  </si>
-  <si>
-    <t>ANA MARIA</t>
-  </si>
-  <si>
-    <t>3016108033</t>
-  </si>
-  <si>
-    <t>17/01/2025</t>
-  </si>
-  <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
-    <t>DAYANA</t>
-  </si>
-  <si>
-    <t>LLANOS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1007831831</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>VEREDA LA SIRIA</t>
-  </si>
-  <si>
-    <t>VEREDA LA SIRIA TRAPICHE EL PARAISO</t>
-  </si>
-  <si>
-    <t>4.795779</t>
-  </si>
-  <si>
-    <t>-75.716488</t>
-  </si>
-  <si>
-    <t>EPS037</t>
-  </si>
-  <si>
-    <t>3235064515</t>
-  </si>
-  <si>
-    <t>25/09/1999</t>
-  </si>
-  <si>
-    <t>JENNY CANO</t>
-  </si>
-  <si>
-    <t>09/01/2025</t>
-  </si>
-  <si>
-    <t>LUZ</t>
-  </si>
-  <si>
-    <t>MIREYA</t>
-  </si>
-  <si>
-    <t>NAVARRETE</t>
-  </si>
-  <si>
-    <t>1055458281</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>MANZANA 15 CASA #10 SEGUNDO PISO BELLO HORIZONTE</t>
-  </si>
-  <si>
-    <t>4.797177</t>
-  </si>
-  <si>
-    <t>-75.748626</t>
-  </si>
-  <si>
-    <t>06/01/2025</t>
-  </si>
-  <si>
-    <t>3202156368</t>
-  </si>
-  <si>
-    <t>01/08/2007</t>
-  </si>
-  <si>
-    <t>LYDA</t>
-  </si>
-  <si>
-    <t>MAGALY</t>
-  </si>
-  <si>
-    <t>ROSERO</t>
-  </si>
-  <si>
-    <t>FORERO</t>
-  </si>
-  <si>
-    <t>24652219</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CALLE 63 #5-28 APTO 201 NUEVO HORIZONTE PARQUE IND</t>
-  </si>
-  <si>
-    <t>4.821185</t>
-  </si>
-  <si>
-    <t>-75.732129</t>
-  </si>
-  <si>
-    <t>52300</t>
-  </si>
-  <si>
-    <t>3018170081</t>
-  </si>
-  <si>
-    <t>28/06/1984</t>
+    <t>VALENTINA</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>GRAJALES</t>
+  </si>
+  <si>
+    <t>1113869366</t>
+  </si>
+  <si>
+    <t>PUERTO CALDAS</t>
+  </si>
+  <si>
+    <t>CRA 4 N 7-10 PISO 2</t>
+  </si>
+  <si>
+    <t>24/03/2018</t>
+  </si>
+  <si>
+    <t>DANIEL NIETO TORRES</t>
+  </si>
+  <si>
+    <t>3053425799</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD PUERTO CALDAS</t>
+  </si>
+  <si>
+    <t>EMERSSON</t>
+  </si>
+  <si>
+    <t>PINZON</t>
+  </si>
+  <si>
+    <t>74379510</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>PIAMONTE</t>
+  </si>
+  <si>
+    <t>CRA 19 NUMERO 73 B -07 PIAMONTE DOSQUEBRADAS</t>
+  </si>
+  <si>
+    <t>22210</t>
+  </si>
+  <si>
+    <t>3113914046</t>
+  </si>
+  <si>
+    <t>29/09/1983</t>
   </si>
   <si>
     <t>6600102601</t>
@@ -971,172 +1385,55 @@
     <t>8000037651</t>
   </si>
   <si>
-    <t>6600103078</t>
-  </si>
-  <si>
-    <t>LAUREN</t>
-  </si>
-  <si>
-    <t>LUHIANA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>RINCON</t>
-  </si>
-  <si>
-    <t>1054561619</t>
-  </si>
-  <si>
-    <t>ESTADIO</t>
-  </si>
-  <si>
-    <t>LA VILLA</t>
-  </si>
-  <si>
-    <t>COLORES DE LA VILLA BLOQUE AZUL CASA 8</t>
-  </si>
-  <si>
-    <t>12/01/2025</t>
-  </si>
-  <si>
-    <t>3203920567</t>
-  </si>
-  <si>
-    <t>08/08/2012</t>
-  </si>
-  <si>
-    <t>660010307801</t>
-  </si>
-  <si>
-    <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-  </si>
-  <si>
-    <t>PAOLA OSPINA CASTRO</t>
-  </si>
-  <si>
-    <t>3174040501</t>
-  </si>
-  <si>
-    <t>901417124</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>JHON</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>LENGUA</t>
-  </si>
-  <si>
-    <t>ANDICA</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>1089392143</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRERA 13B NUMERO 40 29 </t>
-  </si>
-  <si>
-    <t>99999.06</t>
-  </si>
-  <si>
-    <t>3126803657</t>
-  </si>
-  <si>
-    <t>03/07/2020</t>
-  </si>
-  <si>
-    <t>660010033225</t>
-  </si>
-  <si>
-    <t>HOSPITAL DEL CENTRO</t>
-  </si>
-  <si>
-    <t>EDUARDO JOSE CAMEJO</t>
-  </si>
-  <si>
-    <t>816005003</t>
-  </si>
-  <si>
-    <t>NOAH</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LENIS</t>
-  </si>
-  <si>
-    <t>1142527449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO RESIDENCIAL CAOBA APARTAMENTO  1102 VIA CONDINA  CUBA </t>
-  </si>
-  <si>
-    <t>3172555564</t>
-  </si>
-  <si>
-    <t>16/08/2024</t>
-  </si>
-  <si>
-    <t>660010033232</t>
-  </si>
-  <si>
-    <t>EMPRESA SOCIAL DEL ESTADO SALUD PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARITZA CORDERO LOPEZ </t>
-  </si>
-  <si>
-    <t>CRISTHOPER</t>
-  </si>
-  <si>
-    <t>MOSQUERA</t>
-  </si>
-  <si>
-    <t>1088885010</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>VILLASANTANA</t>
-  </si>
-  <si>
-    <t>REMANSO</t>
-  </si>
-  <si>
-    <t>BARRIO EL REMANSO M4 C6</t>
-  </si>
-  <si>
-    <t>3117872564</t>
-  </si>
-  <si>
-    <t>14/09/2016</t>
-  </si>
-  <si>
-    <t>ALVARO A OSORIO R</t>
-  </si>
-  <si>
-    <t>3113839416</t>
-  </si>
-  <si>
-    <t>UNIDAD INTERMEDIA DE KENNEDY</t>
+    <t>6600100217</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
+    <t>1054921144</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 3 # 17-46  APARTAMENTO 302</t>
+  </si>
+  <si>
+    <t>3128049277</t>
+  </si>
+  <si>
+    <t>03/06/2009</t>
+  </si>
+  <si>
+    <t>660010021710</t>
+  </si>
+  <si>
+    <t>CLINICA COMFAMILIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO ANTONIO BEDOYA </t>
+  </si>
+  <si>
+    <t>3135700</t>
+  </si>
+  <si>
+    <t>8914800001</t>
+  </si>
+  <si>
+    <t>CENTRO MEDICO N° 1</t>
   </si>
   <si>
     <t>6600102446</t>
@@ -1191,57 +1488,6 @@
   </si>
   <si>
     <t>8600073361</t>
-  </si>
-  <si>
-    <t>ERICK</t>
-  </si>
-  <si>
-    <t>QUICENO</t>
-  </si>
-  <si>
-    <t>HINCAPIE</t>
-  </si>
-  <si>
-    <t>1005101410</t>
-  </si>
-  <si>
-    <t>NUEVO PEÑOL</t>
-  </si>
-  <si>
-    <t>AV EL RIO CALLE 29 C MANZANA 4 CASA 64 BARRIO NUEVO PEÑOL</t>
-  </si>
-  <si>
-    <t>43212</t>
-  </si>
-  <si>
-    <t>3164479684</t>
-  </si>
-  <si>
-    <t>27/09/2003</t>
-  </si>
-  <si>
-    <t>DYLAN</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
-    <t>1088883722</t>
-  </si>
-  <si>
-    <t>CRA 28#19B-41 CAMPESTRE B</t>
-  </si>
-  <si>
-    <t>3008050208</t>
-  </si>
-  <si>
-    <t>09/05/2013</t>
-  </si>
-  <si>
-    <t>3104511265</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CL20"/>
+  <dimension ref="A1:CL27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2036,7 +2282,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>93</v>
@@ -2078,10 +2324,10 @@
         <v>103</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="T4" s="0" t="s">
         <v>92</v>
@@ -2099,7 +2345,7 @@
         <v>92</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AC4" s="0" t="s">
         <v>157</v>
@@ -2171,10 +2417,10 @@
         <v>102</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="BE4" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="BF4" s="0" t="s">
         <v>115</v>
@@ -2195,40 +2441,40 @@
         <v>117</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM4" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BP4" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BQ4" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BR4" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BT4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BU4" s="0" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="CA4" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB4" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CC4" s="0" t="s">
         <v>103</v>
@@ -2255,7 +2501,7 @@
         <v>130</v>
       </c>
       <c r="CK4" s="0" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="CL4" s="0">
         <v>0</v>
@@ -2266,24 +2512,21 @@
         <v>90</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="0" t="s">
         <v>174</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -2341,19 +2584,19 @@
         <v>180</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AH5" s="0" t="s">
         <v>160</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="AJ5" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AM5" s="0" t="s">
         <v>105</v>
@@ -2404,10 +2647,10 @@
         <v>102</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="BE5" s="0" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="BF5" s="0" t="s">
         <v>115</v>
@@ -2428,31 +2671,31 @@
         <v>117</v>
       </c>
       <c r="BL5" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM5" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="BM5" s="0" t="s">
+      <c r="BP5" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="BP5" s="0" t="s">
+      <c r="BQ5" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="BQ5" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="BR5" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT5" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="BT5" s="0" t="s">
+      <c r="BU5" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV5" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="BU5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="BV5" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="BZ5" s="0" t="s">
         <v>147</v>
@@ -2461,7 +2704,7 @@
         <v>127</v>
       </c>
       <c r="CB5" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CC5" s="0" t="s">
         <v>103</v>
@@ -2488,7 +2731,7 @@
         <v>130</v>
       </c>
       <c r="CK5" s="0" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="CL5" s="0">
         <v>0</v>
@@ -2499,7 +2742,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>105</v>
@@ -2508,28 +2751,28 @@
         <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>92</v>
@@ -2565,19 +2808,19 @@
         <v>107</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AH6" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AJ6" s="0" t="s">
         <v>113</v>
@@ -2634,10 +2877,10 @@
         <v>102</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="BE6" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="BF6" s="0" t="s">
         <v>115</v>
@@ -2655,34 +2898,34 @@
         <v>116</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="BM6" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BP6" s="0" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="BQ6" s="0" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BR6" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS6" s="0" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BT6" s="0" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="BU6" s="0" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="BZ6" s="0" t="s">
         <v>147</v>
@@ -2691,7 +2934,7 @@
         <v>127</v>
       </c>
       <c r="CB6" s="0" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="CC6" s="0" t="s">
         <v>103</v>
@@ -2718,7 +2961,7 @@
         <v>130</v>
       </c>
       <c r="CK6" s="0" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="CL6" s="0">
         <v>0</v>
@@ -2729,40 +2972,40 @@
         <v>90</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>92</v>
@@ -2789,28 +3032,28 @@
         <v>106</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AH7" s="0" t="s">
         <v>160</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AJ7" s="0" t="s">
         <v>113</v>
@@ -2837,7 +3080,7 @@
         <v>105</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AU7" s="0" t="s">
         <v>105</v>
@@ -2852,7 +3095,7 @@
         <v>105</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AZ7" s="0" t="s">
         <v>92</v>
@@ -2864,13 +3107,13 @@
         <v>106</v>
       </c>
       <c r="BC7" s="0" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="BE7" s="0" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="BF7" s="0" t="s">
         <v>115</v>
@@ -2882,7 +3125,7 @@
         <v>116</v>
       </c>
       <c r="BI7" s="0" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="BJ7" s="0" t="s">
         <v>116</v>
@@ -2891,40 +3134,40 @@
         <v>117</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BM7" s="0" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="BP7" s="0" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="BQ7" s="0" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="BR7" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS7" s="0" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="BT7" s="0" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="BU7" s="0" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="CA7" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB7" s="0" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="CC7" s="0" t="s">
         <v>103</v>
@@ -2933,7 +3176,7 @@
         <v>128</v>
       </c>
       <c r="CE7" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CF7" s="0" t="s">
         <v>103</v>
@@ -2942,7 +3185,7 @@
         <v>128</v>
       </c>
       <c r="CH7" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CI7" s="0" t="s">
         <v>128</v>
@@ -2951,7 +3194,7 @@
         <v>130</v>
       </c>
       <c r="CK7" s="0" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="CL7" s="0">
         <v>0</v>
@@ -2962,37 +3205,40 @@
         <v>90</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>227</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>92</v>
@@ -3019,40 +3265,31 @@
         <v>106</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>239</v>
+        <v>105</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>233</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF8" s="0" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="AJ8" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="AM8" s="0" t="s">
         <v>105</v>
@@ -3066,10 +3303,16 @@
       <c r="AP8" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="AQ8" s="0" t="s">
+        <v>105</v>
+      </c>
       <c r="AS8" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AT8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU8" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AV8" s="0" t="s">
@@ -3094,13 +3337,13 @@
         <v>106</v>
       </c>
       <c r="BC8" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="BE8" s="0" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="BF8" s="0" t="s">
         <v>115</v>
@@ -3121,34 +3364,40 @@
         <v>117</v>
       </c>
       <c r="BL8" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ8" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS8" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT8" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU8" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="BM8" s="0" t="s">
+      <c r="BV8" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="BR8" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS8" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="BT8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV8" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="BZ8" s="0" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="CA8" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB8" s="0" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="CC8" s="0" t="s">
         <v>103</v>
@@ -3175,7 +3424,7 @@
         <v>130</v>
       </c>
       <c r="CK8" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="CL8" s="0">
         <v>0</v>
@@ -3186,37 +3435,40 @@
         <v>90</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>95</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>253</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>92</v>
@@ -3243,13 +3495,13 @@
         <v>106</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y9" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>255</v>
@@ -3257,12 +3509,6 @@
       <c r="AD9" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="AE9" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF9" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="AG9" s="0" t="s">
         <v>141</v>
       </c>
@@ -3270,13 +3516,13 @@
         <v>111</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AJ9" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AM9" s="0" t="s">
         <v>105</v>
@@ -3324,13 +3570,13 @@
         <v>106</v>
       </c>
       <c r="BC9" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="BE9" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BF9" s="0" t="s">
         <v>115</v>
@@ -3348,37 +3594,43 @@
         <v>116</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="BL9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM9" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="BP9" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="BM9" s="0" t="s">
+      <c r="BQ9" s="0" t="s">
         <v>261</v>
       </c>
       <c r="BR9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS9" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="BS9" s="0" t="s">
+      <c r="BT9" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="BT9" s="0" t="s">
+      <c r="BU9" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="BU9" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="BV9" s="0" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="CA9" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB9" s="0" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="CC9" s="0" t="s">
         <v>103</v>
@@ -3405,7 +3657,7 @@
         <v>130</v>
       </c>
       <c r="CK9" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="CL9" s="0">
         <v>0</v>
@@ -3416,24 +3668,21 @@
         <v>90</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="0" t="s">
         <v>267</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -3443,7 +3692,7 @@
         <v>269</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>270</v>
@@ -3461,10 +3710,13 @@
         <v>103</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>102</v>
@@ -3473,12 +3725,15 @@
         <v>106</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" s="0" t="s">
         <v>272</v>
       </c>
       <c r="AD10" s="0" t="s">
@@ -3491,19 +3746,19 @@
         <v>275</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="AH10" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="AJ10" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="AM10" s="0" t="s">
         <v>105</v>
@@ -3517,16 +3772,10 @@
       <c r="AP10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="AQ10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="AS10" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU10" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AV10" s="0" t="s">
@@ -3551,13 +3800,13 @@
         <v>106</v>
       </c>
       <c r="BC10" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BE10" s="0" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="BF10" s="0" t="s">
         <v>115</v>
@@ -3578,34 +3827,34 @@
         <v>117</v>
       </c>
       <c r="BL10" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM10" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="BM10" s="0" t="s">
+      <c r="BR10" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS10" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="BR10" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="BS10" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="BT10" s="0" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="BU10" s="0" t="s">
         <v>131</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="CA10" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB10" s="0" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="CC10" s="0" t="s">
         <v>103</v>
@@ -3632,7 +3881,7 @@
         <v>130</v>
       </c>
       <c r="CK10" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="CL10" s="0">
         <v>0</v>
@@ -3643,40 +3892,37 @@
         <v>90</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>92</v>
@@ -3693,6 +3939,9 @@
       <c r="R11" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="T11" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="V11" s="0" t="s">
         <v>102</v>
       </c>
@@ -3700,16 +3949,16 @@
         <v>106</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y11" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="AD11" s="0" t="s">
         <v>286</v>
@@ -3721,19 +3970,19 @@
         <v>288</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AH11" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="AJ11" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="AM11" s="0" t="s">
         <v>105</v>
@@ -3781,10 +4030,10 @@
         <v>106</v>
       </c>
       <c r="BC11" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="BE11" s="0" t="s">
         <v>289</v>
@@ -3814,28 +4063,28 @@
         <v>291</v>
       </c>
       <c r="BR11" s="0" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="BS11" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="BT11" s="0" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="BU11" s="0" t="s">
         <v>131</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="CA11" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB11" s="0" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="CC11" s="0" t="s">
         <v>103</v>
@@ -3862,7 +4111,7 @@
         <v>130</v>
       </c>
       <c r="CK11" s="0" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="CL11" s="0">
         <v>0</v>
@@ -3873,40 +4122,40 @@
         <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>99</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>92</v>
@@ -3918,13 +4167,10 @@
         <v>103</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>102</v>
@@ -3933,40 +4179,37 @@
         <v>106</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>255</v>
+        <v>105</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="AH12" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="AJ12" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="AM12" s="0" t="s">
         <v>105</v>
@@ -3980,10 +4223,16 @@
       <c r="AP12" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="AQ12" s="0" t="s">
+        <v>105</v>
+      </c>
       <c r="AS12" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AT12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU12" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AV12" s="0" t="s">
@@ -4008,13 +4257,13 @@
         <v>106</v>
       </c>
       <c r="BC12" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="BE12" s="0" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="BF12" s="0" t="s">
         <v>115</v>
@@ -4035,34 +4284,34 @@
         <v>117</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="BM12" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="BR12" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="BS12" s="0" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="BT12" s="0" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="BU12" s="0" t="s">
         <v>131</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="CA12" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB12" s="0" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="CC12" s="0" t="s">
         <v>103</v>
@@ -4089,7 +4338,7 @@
         <v>130</v>
       </c>
       <c r="CK12" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="CL12" s="0">
         <v>0</v>
@@ -4100,7 +4349,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>105</v>
@@ -4109,28 +4358,31 @@
         <v>93</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>92</v>
@@ -4147,9 +4399,6 @@
       <c r="R13" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="V13" s="0" t="s">
         <v>102</v>
       </c>
@@ -4157,7 +4406,7 @@
         <v>106</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y13" s="0" t="s">
         <v>92</v>
@@ -4166,25 +4415,31 @@
         <v>130</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>316</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="AH13" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="AJ13" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AM13" s="0" t="s">
         <v>105</v>
@@ -4232,13 +4487,13 @@
         <v>106</v>
       </c>
       <c r="BC13" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="BE13" s="0" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="BF13" s="0" t="s">
         <v>115</v>
@@ -4259,40 +4514,34 @@
         <v>117</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="BM13" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP13" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="BQ13" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="BR13" s="0" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="BS13" s="0" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="BT13" s="0" t="s">
-        <v>317</v>
+        <v>220</v>
       </c>
       <c r="BU13" s="0" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="CA13" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB13" s="0" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="CC13" s="0" t="s">
         <v>103</v>
@@ -4319,7 +4568,7 @@
         <v>130</v>
       </c>
       <c r="CK13" s="0" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="CL13" s="0">
         <v>0</v>
@@ -4330,19 +4579,19 @@
         <v>90</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>320</v>
@@ -4357,13 +4606,13 @@
         <v>323</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>324</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>92</v>
@@ -4375,7 +4624,7 @@
         <v>103</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>105</v>
@@ -4390,34 +4639,40 @@
         <v>106</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y14" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="AC14" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD14" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="AD14" s="0" t="s">
+      <c r="AE14" s="0" t="s">
         <v>327</v>
       </c>
+      <c r="AF14" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="AG14" s="0" t="s">
-        <v>141</v>
+        <v>329</v>
       </c>
       <c r="AH14" s="0" t="s">
         <v>111</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="AJ14" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="AM14" s="0" t="s">
         <v>105</v>
@@ -4431,16 +4686,10 @@
       <c r="AP14" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="AQ14" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="AS14" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU14" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AV14" s="0" t="s">
@@ -4465,13 +4714,13 @@
         <v>106</v>
       </c>
       <c r="BC14" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="BE14" s="0" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="BF14" s="0" t="s">
         <v>115</v>
@@ -4489,43 +4738,37 @@
         <v>116</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BM14" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="BP14" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="BQ14" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="BR14" s="0" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="BS14" s="0" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="BT14" s="0" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="BU14" s="0" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="CA14" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB14" s="0" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="CC14" s="0" t="s">
         <v>103</v>
@@ -4552,7 +4795,7 @@
         <v>130</v>
       </c>
       <c r="CK14" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="CL14" s="0">
         <v>0</v>
@@ -4563,7 +4806,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>115</v>
@@ -4572,31 +4815,28 @@
         <v>93</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>92</v>
@@ -4623,31 +4863,31 @@
         <v>106</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>343</v>
+        <v>92</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>345</v>
+        <v>141</v>
       </c>
       <c r="AH15" s="0" t="s">
         <v>160</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="AJ15" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AM15" s="0" t="s">
         <v>105</v>
@@ -4695,13 +4935,13 @@
         <v>106</v>
       </c>
       <c r="BC15" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BE15" s="0" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="BF15" s="0" t="s">
         <v>115</v>
@@ -4722,31 +4962,31 @@
         <v>117</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="BM15" s="0" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="BP15" s="0" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="BQ15" s="0" t="s">
-        <v>349</v>
+        <v>185</v>
       </c>
       <c r="BR15" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS15" s="0" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="BT15" s="0" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="BU15" s="0" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="BZ15" s="0" t="s">
         <v>147</v>
@@ -4755,7 +4995,7 @@
         <v>127</v>
       </c>
       <c r="CB15" s="0" t="s">
-        <v>349</v>
+        <v>185</v>
       </c>
       <c r="CC15" s="0" t="s">
         <v>103</v>
@@ -4782,7 +5022,7 @@
         <v>130</v>
       </c>
       <c r="CK15" s="0" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="CL15" s="0">
         <v>0</v>
@@ -4793,7 +5033,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>115</v>
@@ -4802,31 +5042,31 @@
         <v>93</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>102</v>
@@ -4850,34 +5090,34 @@
         <v>106</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="AJ16" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AM16" s="0" t="s">
         <v>105</v>
@@ -4925,16 +5165,16 @@
         <v>106</v>
       </c>
       <c r="BC16" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="BE16" s="0" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="BG16" s="0" t="s">
         <v>105</v>
@@ -4952,31 +5192,31 @@
         <v>117</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="BM16" s="0" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="BP16" s="0" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="BQ16" s="0" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="BR16" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS16" s="0" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="BT16" s="0" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="BU16" s="0" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="BV16" s="0" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="BZ16" s="0" t="s">
         <v>147</v>
@@ -4985,7 +5225,7 @@
         <v>127</v>
       </c>
       <c r="CB16" s="0" t="s">
-        <v>349</v>
+        <v>185</v>
       </c>
       <c r="CC16" s="0" t="s">
         <v>103</v>
@@ -5012,7 +5252,7 @@
         <v>130</v>
       </c>
       <c r="CK16" s="0" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="CL16" s="0">
         <v>0</v>
@@ -5023,37 +5263,37 @@
         <v>90</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>95</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>92</v>
@@ -5080,34 +5320,34 @@
         <v>106</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y17" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>367</v>
+        <v>107</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>368</v>
+        <v>107</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AG17" s="0" t="s">
         <v>141</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AM17" s="0" t="s">
         <v>105</v>
@@ -5155,13 +5395,13 @@
         <v>106</v>
       </c>
       <c r="BC17" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="BE17" s="0" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="BF17" s="0" t="s">
         <v>115</v>
@@ -5182,40 +5422,40 @@
         <v>117</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="BM17" s="0" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="BP17" s="0" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="BQ17" s="0" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="BR17" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS17" s="0" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="BT17" s="0" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="BU17" s="0" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="BV17" s="0" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="CA17" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB17" s="0" t="s">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="CC17" s="0" t="s">
         <v>103</v>
@@ -5242,7 +5482,7 @@
         <v>130</v>
       </c>
       <c r="CK17" s="0" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="CL17" s="0">
         <v>0</v>
@@ -5253,7 +5493,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>115</v>
@@ -5262,31 +5502,28 @@
         <v>93</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>378</v>
+        <v>175</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>92</v>
@@ -5298,10 +5535,10 @@
         <v>103</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>92</v>
@@ -5313,31 +5550,34 @@
         <v>106</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB18" s="0" t="s">
-        <v>381</v>
+        <v>92</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>365</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="AM18" s="0" t="s">
         <v>105</v>
@@ -5385,13 +5625,13 @@
         <v>106</v>
       </c>
       <c r="BC18" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD18" s="0" t="s">
         <v>146</v>
       </c>
       <c r="BE18" s="0" t="s">
-        <v>385</v>
+        <v>146</v>
       </c>
       <c r="BF18" s="0" t="s">
         <v>115</v>
@@ -5409,34 +5649,34 @@
         <v>116</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="BM18" s="0" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="BP18" s="0" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="BQ18" s="0" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="BR18" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS18" s="0" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="BT18" s="0" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="BU18" s="0" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="BV18" s="0" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="BZ18" s="0" t="s">
         <v>147</v>
@@ -5445,7 +5685,7 @@
         <v>127</v>
       </c>
       <c r="CB18" s="0" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="CC18" s="0" t="s">
         <v>103</v>
@@ -5472,7 +5712,7 @@
         <v>130</v>
       </c>
       <c r="CK18" s="0" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="CL18" s="0">
         <v>0</v>
@@ -5483,37 +5723,40 @@
         <v>90</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>393</v>
+        <v>376</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>92</v>
@@ -5525,10 +5768,10 @@
         <v>103</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="T19" s="0" t="s">
         <v>92</v>
@@ -5540,34 +5783,31 @@
         <v>106</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>397</v>
+        <v>246</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>382</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>399</v>
+        <v>235</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="AJ19" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AM19" s="0" t="s">
         <v>105</v>
@@ -5615,13 +5855,13 @@
         <v>106</v>
       </c>
       <c r="BC19" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD19" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="BE19" s="0" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="BF19" s="0" t="s">
         <v>115</v>
@@ -5642,31 +5882,31 @@
         <v>117</v>
       </c>
       <c r="BL19" s="0" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="BM19" s="0" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="BP19" s="0" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="BQ19" s="0" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="BR19" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS19" s="0" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="BT19" s="0" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="BU19" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="BV19" s="0" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="BZ19" s="0" t="s">
         <v>147</v>
@@ -5675,7 +5915,7 @@
         <v>127</v>
       </c>
       <c r="CB19" s="0" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="CC19" s="0" t="s">
         <v>103</v>
@@ -5702,7 +5942,7 @@
         <v>130</v>
       </c>
       <c r="CK19" s="0" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="CL19" s="0">
         <v>0</v>
@@ -5713,40 +5953,40 @@
         <v>90</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>102</v>
@@ -5770,34 +6010,34 @@
         <v>106</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Y20" s="0" t="s">
         <v>92</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="AH20" s="0" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="AJ20" s="0" t="s">
         <v>113</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AM20" s="0" t="s">
         <v>105</v>
@@ -5845,16 +6085,16 @@
         <v>106</v>
       </c>
       <c r="BC20" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="BD20" s="0" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="BE20" s="0" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="BF20" s="0" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="BG20" s="0" t="s">
         <v>105</v>
@@ -5872,40 +6112,40 @@
         <v>117</v>
       </c>
       <c r="BL20" s="0" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="BM20" s="0" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="BP20" s="0" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="BQ20" s="0" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="BR20" s="0" t="s">
         <v>116</v>
       </c>
       <c r="BS20" s="0" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="BT20" s="0" t="s">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="BU20" s="0" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="BV20" s="0" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="BZ20" s="0" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="CA20" s="0" t="s">
         <v>127</v>
       </c>
       <c r="CB20" s="0" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="CC20" s="0" t="s">
         <v>103</v>
@@ -5932,9 +6172,1607 @@
         <v>130</v>
       </c>
       <c r="CK20" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="CL20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC21" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE21" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="BF21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL21" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM21" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="BP21" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ21" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS21" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="BT21" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="BU21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="BV21" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA21" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB21" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="CC21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC22" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD22" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE22" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL22" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="BM22" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP22" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="BQ22" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="BR22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS22" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="BT22" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU22" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV22" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="BZ22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB22" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="CC22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK22" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="CL22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="BE23" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="BF23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK23" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM23" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="BP23" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="BQ23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="BR23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS23" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="BT23" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="BU23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="BV23" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="BZ23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB23" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="CC23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK23" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="CL23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC24" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE24" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF24" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL24" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="BM24" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="BP24" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="BQ24" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="BR24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS24" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BT24" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="BV24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB24" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="CC24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD24" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG24" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI24" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="CL24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ25" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC25" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD25" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE25" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="CL20" s="0">
+      <c r="BF25" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL25" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM25" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="BP25" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="BQ25" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="BR25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS25" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT25" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="BU25" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="BV25" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="BZ25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB25" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK25" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="CL25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI26" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE26" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF26" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK26" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL26" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="BM26" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="BP26" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="BQ26" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="BR26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS26" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="BT26" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="BU26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV26" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="BZ26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB26" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="CC26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC27" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD27" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE27" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="BF27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL27" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="BM27" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="BP27" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="BQ27" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="BR27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS27" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="BT27" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="BU27" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV27" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="BZ27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA27" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB27" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="CC27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD27" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG27" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI27" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK27" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="CL27" s="0">
         <v>0</v>
       </c>
     </row>
